--- a/sprint_1_bd/exercicios_01/1.4-exercicio-optus/modelagens/1.4_modelagem_fisico.xlsx
+++ b/sprint_1_bd/exercicios_01/1.4-exercicio-optus/modelagens/1.4_modelagem_fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Werther\Documents\SENAI - 2\sprint_1_bd\exercicios_01\1.4-exercicio-optus\modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\SENAI_2\sprint_1_bd\exercicios_01\1.4-exercicio-optus\modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFDCF08-5F6A-4D62-B47B-0510CFC1983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871F4A1E-6BD2-46CF-A201-7B239DFD0ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="15" windowWidth="28110" windowHeight="16440" xr2:uid="{F150418A-1BBA-449A-AF4B-AF264D542C04}"/>
+    <workbookView xWindow="20376" yWindow="12" windowWidth="28116" windowHeight="16440" xr2:uid="{F150418A-1BBA-449A-AF4B-AF264D542C04}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>usuario</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>idAlbum-estilo</t>
-  </si>
-  <si>
-    <t>codAlbumEstilo</t>
   </si>
   <si>
     <t>dataLancamento</t>
@@ -231,13 +228,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -555,39 +552,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B911A7EF-897B-428F-8661-0F26E8E21308}">
   <dimension ref="B1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19:R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,15 +597,15 @@
       <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -629,7 +626,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -650,7 +647,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -671,26 +668,26 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -706,27 +703,25 @@
       <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="7"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -742,26 +737,24 @@
       <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="I10" s="1"/>
+      <c r="J10" s="10">
         <v>29560</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="9">
+        <v>39</v>
+      </c>
+      <c r="L10" s="8">
         <v>45</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>1</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -777,26 +770,24 @@
       <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="I11" s="1"/>
+      <c r="J11" s="10">
         <v>34731</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="9">
+        <v>39</v>
+      </c>
+      <c r="L11" s="8">
         <v>52</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>1</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>3</v>
       </c>
@@ -812,26 +803,24 @@
       <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="1">
-        <v>4</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="I12" s="1"/>
+      <c r="J12" s="10">
         <v>36283</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="K12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="8">
         <v>48</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>0</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F13" s="1">
         <v>4</v>
       </c>
@@ -841,23 +830,21 @@
       <c r="H13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="9">
-        <v>6</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="I13" s="8"/>
+      <c r="J13" s="10">
         <v>33805</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="K13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="8">
         <v>75</v>
       </c>
-      <c r="M13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F14" s="1">
         <v>5</v>
       </c>
@@ -867,23 +854,21 @@
       <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="I14" s="1"/>
+      <c r="J14" s="10">
         <v>31081</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="K14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="8">
         <v>35</v>
       </c>
-      <c r="M14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F15" s="1">
         <v>6</v>
       </c>
@@ -893,35 +878,33 @@
       <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="9">
-        <v>5</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="I15" s="8"/>
+      <c r="J15" s="10">
         <v>30285</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="9">
+      <c r="K15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="8">
         <v>41</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F18" s="7" t="s">
+    <row r="18" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="O18" s="7" t="s">
+      <c r="G18" s="11"/>
+      <c r="O18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F19" s="1" t="s">
         <v>27</v>
       </c>
@@ -937,11 +920,9 @@
       <c r="Q19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F20" s="1">
         <v>1</v>
       </c>
@@ -957,11 +938,9 @@
       <c r="Q20" s="1">
         <v>1</v>
       </c>
-      <c r="R20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F21" s="1">
         <v>2</v>
       </c>
@@ -977,11 +956,9 @@
       <c r="Q21" s="1">
         <v>4</v>
       </c>
-      <c r="R21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F22" s="1">
         <v>3</v>
       </c>
@@ -997,11 +974,9 @@
       <c r="Q22" s="1">
         <v>3</v>
       </c>
-      <c r="R22" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F23" s="1">
         <v>4</v>
       </c>
@@ -1017,11 +992,9 @@
       <c r="Q23" s="1">
         <v>2</v>
       </c>
-      <c r="R23" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="O24" s="1">
@@ -1033,11 +1006,9 @@
       <c r="Q24" s="1">
         <v>1</v>
       </c>
-      <c r="R24" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="O25" s="1">
@@ -1049,93 +1020,79 @@
       <c r="Q25" s="1">
         <v>2</v>
       </c>
-      <c r="R25" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O26" s="9">
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="O26" s="8">
         <v>7</v>
       </c>
-      <c r="P26" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>2</v>
-      </c>
-      <c r="R26" s="9">
+      <c r="P26" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>2</v>
+      </c>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="O27" s="8">
+        <v>8</v>
+      </c>
+      <c r="P27" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>3</v>
+      </c>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="O28" s="8">
+        <v>9</v>
+      </c>
+      <c r="P28" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>1</v>
+      </c>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="O29" s="8">
+        <v>10</v>
+      </c>
+      <c r="P29" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O27" s="9">
-        <v>8</v>
-      </c>
-      <c r="P27" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>3</v>
-      </c>
-      <c r="R27" s="9">
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="O30" s="8">
+        <v>11</v>
+      </c>
+      <c r="P30" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O28" s="9">
-        <v>9</v>
-      </c>
-      <c r="P28" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>1</v>
-      </c>
-      <c r="R28" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O29" s="9">
-        <v>10</v>
-      </c>
-      <c r="P29" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="9">
+      <c r="Q30" s="8">
+        <v>2</v>
+      </c>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="O31" s="8">
+        <v>12</v>
+      </c>
+      <c r="P31" s="8">
         <v>4</v>
       </c>
-      <c r="R29" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O30" s="9">
-        <v>11</v>
-      </c>
-      <c r="P30" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>2</v>
-      </c>
-      <c r="R30" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="O31" s="9">
-        <v>12</v>
-      </c>
-      <c r="P31" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>3</v>
-      </c>
-      <c r="R31" s="9">
-        <v>6</v>
-      </c>
+      <c r="Q31" s="8">
+        <v>3</v>
+      </c>
+      <c r="R31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
